--- a/podsumowanie/d_summary.xlsx
+++ b/podsumowanie/d_summary.xlsx
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -345,6 +345,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,7 +373,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -385,9 +403,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -395,21 +410,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="6" applyBorder="1"/>
@@ -431,6 +434,27 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Akcent 1" xfId="6" builtinId="29"/>
@@ -488,27 +512,251 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color indexed="8"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -561,6 +809,265 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -852,504 +1359,21 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1667,7 +1691,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4616,7 +4639,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4728,7 +4750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5627,7 +5648,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16726,7 +16746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17241,7 +17260,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18604,7 +18622,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19119,7 +19136,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19231,7 +19247,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19746,7 +19761,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19858,7 +19872,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21057,7 +21070,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21169,7 +21181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24118,7 +24129,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24230,7 +24240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24745,7 +24754,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24857,7 +24865,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25372,7 +25379,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25484,7 +25490,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25999,7 +26004,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -37676,32 +37680,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela5" displayName="Tabela5" ref="Q250:T316" totalsRowShown="0">
   <autoFilter ref="Q250:T316"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data" dataDxfId="7"/>
+    <tableColumn id="1" name="data" dataDxfId="52"/>
     <tableColumn id="2" name="dane historyczne"/>
     <tableColumn id="3" name="wartości testowe"/>
-    <tableColumn id="4" name="prognozy" dataDxfId="6"/>
+    <tableColumn id="4" name="prognozy" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="C3:O33" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" dataCellStyle="Normalny_d2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="C3:O33" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" dataCellStyle="Normalny_d2">
   <autoFilter ref="C3:O33"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="data" dataDxfId="50"/>
-    <tableColumn id="2" name="wartości rzeczywiste" dataDxfId="49"/>
-    <tableColumn id="3" name="R - prosta metoda naiwna" dataDxfId="48"/>
-    <tableColumn id="4" name="R - sezonowa metoda naiwna" dataDxfId="47"/>
-    <tableColumn id="5" name="R - przyrostowa metoda naiwna" dataDxfId="46"/>
-    <tableColumn id="6" name="R - model regresji" dataDxfId="45"/>
-    <tableColumn id="7" name="R - model ETS(A,A,A)" dataDxfId="44"/>
-    <tableColumn id="8" name="R - ARIMA(0,1,1)(1,0,1)[7]" dataDxfId="43"/>
-    <tableColumn id="9" name="R - NNAR(14,1,8)[7]" dataDxfId="42"/>
-    <tableColumn id="10" name="Statistica - metoda Holta" dataDxfId="41" dataCellStyle="Normalny_d2"/>
-    <tableColumn id="11" name="Statistica - metoda Wintersa" dataDxfId="40" dataCellStyle="Normalny_d2"/>
-    <tableColumn id="12" name="Statistica - ARIMA(2,1,2)(2,0,0)[7]" dataDxfId="39" dataCellStyle="Normalny_d2"/>
-    <tableColumn id="13" name="Excel" dataDxfId="38"/>
+    <tableColumn id="1" name="data" dataDxfId="48"/>
+    <tableColumn id="2" name="wartości rzeczywiste" dataDxfId="47"/>
+    <tableColumn id="3" name="R - prosta metoda naiwna" dataDxfId="46"/>
+    <tableColumn id="4" name="R - sezonowa metoda naiwna" dataDxfId="45"/>
+    <tableColumn id="5" name="R - przyrostowa metoda naiwna" dataDxfId="44"/>
+    <tableColumn id="6" name="R - model regresji" dataDxfId="43"/>
+    <tableColumn id="7" name="R - model ETS(A,A,A)" dataDxfId="42"/>
+    <tableColumn id="8" name="R - ARIMA(0,1,1)(1,0,1)[7]" dataDxfId="41"/>
+    <tableColumn id="9" name="R - NNAR(14,1,8)[7]" dataDxfId="40"/>
+    <tableColumn id="10" name="Statistica - metoda Holta" dataDxfId="39" dataCellStyle="Normalny_d2"/>
+    <tableColumn id="11" name="Statistica - metoda Wintersa" dataDxfId="38" dataCellStyle="Normalny_d2"/>
+    <tableColumn id="12" name="Statistica - ARIMA(2,1,2)(2,0,0)[7]" dataDxfId="37" dataCellStyle="Normalny_d2"/>
+    <tableColumn id="13" name="Excel" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -37711,32 +37715,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela6" displayName="Tabela6" ref="Q253:T294" totalsRowShown="0">
   <autoFilter ref="Q253:T294"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data" dataDxfId="5"/>
+    <tableColumn id="1" name="data" dataDxfId="35"/>
     <tableColumn id="2" name="dane historyczne"/>
     <tableColumn id="3" name="wartości testowe"/>
-    <tableColumn id="4" name="prognozy" dataDxfId="4" dataCellStyle="Normalny_d2"/>
+    <tableColumn id="4" name="prognozy" dataDxfId="34" dataCellStyle="Normalny_d2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C3:O33" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" dataCellStyle="Normalny_d3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="C3:O33" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" dataCellStyle="Normalny_d3">
   <autoFilter ref="C3:O33"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="data" dataDxfId="35"/>
-    <tableColumn id="2" name="wartości rzeczywiste" dataDxfId="34"/>
-    <tableColumn id="3" name="R - prosta metoda naiwna" dataDxfId="33"/>
-    <tableColumn id="4" name="R - sezonowa metoda naiwna" dataDxfId="32"/>
-    <tableColumn id="5" name="R - przyrostowa metoda naiwna" dataDxfId="31"/>
-    <tableColumn id="6" name="R - model regresji" dataDxfId="30"/>
-    <tableColumn id="7" name="R - model ETS(A,N,A)" dataDxfId="29"/>
-    <tableColumn id="8" name="R - ARIMA(1,0,1)(0,1,2)[7]" dataDxfId="28"/>
-    <tableColumn id="9" name="R - NNAR(21,1,11)[7]" dataDxfId="27"/>
-    <tableColumn id="10" name="Statistica - metoda Holta" dataDxfId="26" dataCellStyle="Normalny_d3"/>
-    <tableColumn id="11" name="Statistica - metoda Wintersa" dataDxfId="25" dataCellStyle="Normalny_d3"/>
-    <tableColumn id="12" name="Statistica - ARIMA(2,0,3)(1,1,2)[7]" dataDxfId="24" dataCellStyle="Normalny_d3"/>
-    <tableColumn id="13" name="Excel" dataDxfId="23"/>
+    <tableColumn id="1" name="data" dataDxfId="31"/>
+    <tableColumn id="2" name="wartości rzeczywiste" dataDxfId="30"/>
+    <tableColumn id="3" name="R - prosta metoda naiwna" dataDxfId="29"/>
+    <tableColumn id="4" name="R - sezonowa metoda naiwna" dataDxfId="28"/>
+    <tableColumn id="5" name="R - przyrostowa metoda naiwna" dataDxfId="27"/>
+    <tableColumn id="6" name="R - model regresji" dataDxfId="26"/>
+    <tableColumn id="7" name="R - model ETS(A,N,A)" dataDxfId="25"/>
+    <tableColumn id="8" name="R - ARIMA(1,0,1)(0,1,2)[7]" dataDxfId="24"/>
+    <tableColumn id="9" name="R - NNAR(21,1,11)[7]" dataDxfId="23"/>
+    <tableColumn id="10" name="Statistica - metoda Holta" dataDxfId="22" dataCellStyle="Normalny_d3"/>
+    <tableColumn id="11" name="Statistica - metoda Wintersa" dataDxfId="21" dataCellStyle="Normalny_d3"/>
+    <tableColumn id="12" name="Statistica - ARIMA(2,0,3)(1,1,2)[7]" dataDxfId="20" dataCellStyle="Normalny_d3"/>
+    <tableColumn id="13" name="Excel" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -37746,32 +37750,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="Q257:T330" totalsRowShown="0">
   <autoFilter ref="Q257:T330"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="data" dataDxfId="3"/>
+    <tableColumn id="1" name="data" dataDxfId="18"/>
     <tableColumn id="2" name="dane historyczne"/>
     <tableColumn id="3" name="wartości testowe"/>
-    <tableColumn id="4" name="prognozy" dataDxfId="2" dataCellStyle="Normalny_d3"/>
+    <tableColumn id="4" name="prognozy" dataDxfId="17" dataCellStyle="Normalny_d3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:O33" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" dataCellStyle="Normalny_d4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C3:O33" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="Normalny_d4">
   <autoFilter ref="C3:O33"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="data" dataDxfId="20"/>
-    <tableColumn id="2" name="wartości rzeczywiste" dataDxfId="19"/>
-    <tableColumn id="3" name="R - prosta metoda naiwna" dataDxfId="18"/>
-    <tableColumn id="4" name="R - sezonowa metoda naiwna" dataDxfId="17"/>
-    <tableColumn id="5" name="R - przyrostowa metoda naiwna" dataDxfId="16"/>
-    <tableColumn id="6" name="R - model regresji" dataDxfId="15"/>
-    <tableColumn id="7" name="R - model ETS(A,Ad,A)" dataDxfId="14"/>
-    <tableColumn id="8" name="R - ARIMA(2,1,2)(0,1,1)[7]" dataDxfId="13"/>
-    <tableColumn id="9" name="R - NNAR(22,1,12)[7]" dataDxfId="12"/>
-    <tableColumn id="10" name="Statistica - metoda Holta" dataDxfId="11" dataCellStyle="Normalny_d4"/>
-    <tableColumn id="11" name="Statistica - metoda Wintersa" dataDxfId="10" dataCellStyle="Normalny_d4"/>
-    <tableColumn id="12" name="Statistica - ARIMA(3,1,3)(2,1,2)[7]" dataDxfId="9" dataCellStyle="Normalny_d4"/>
-    <tableColumn id="13" name="Excel" dataDxfId="8"/>
+    <tableColumn id="1" name="data" dataDxfId="14"/>
+    <tableColumn id="2" name="wartości rzeczywiste" dataDxfId="13"/>
+    <tableColumn id="3" name="R - prosta metoda naiwna" dataDxfId="12"/>
+    <tableColumn id="4" name="R - sezonowa metoda naiwna" dataDxfId="11"/>
+    <tableColumn id="5" name="R - przyrostowa metoda naiwna" dataDxfId="10"/>
+    <tableColumn id="6" name="R - model regresji" dataDxfId="9"/>
+    <tableColumn id="7" name="R - model ETS(A,Ad,A)" dataDxfId="8"/>
+    <tableColumn id="8" name="R - ARIMA(2,1,2)(0,1,1)[7]" dataDxfId="7"/>
+    <tableColumn id="9" name="R - NNAR(22,1,12)[7]" dataDxfId="6"/>
+    <tableColumn id="10" name="Statistica - metoda Holta" dataDxfId="5" dataCellStyle="Normalny_d4"/>
+    <tableColumn id="11" name="Statistica - metoda Wintersa" dataDxfId="4" dataCellStyle="Normalny_d4"/>
+    <tableColumn id="12" name="Statistica - ARIMA(3,1,3)(2,1,2)[7]" dataDxfId="3" dataCellStyle="Normalny_d4"/>
+    <tableColumn id="13" name="Excel" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -43911,7 +43915,7 @@
       </c>
     </row>
     <row r="138" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D138" t="s">
@@ -43963,7 +43967,7 @@
       </c>
     </row>
     <row r="139" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C139" s="13"/>
+      <c r="C139" s="32"/>
       <c r="D139" t="s">
         <v>25</v>
       </c>
@@ -44013,7 +44017,7 @@
       </c>
     </row>
     <row r="140" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C140" s="13"/>
+      <c r="C140" s="32"/>
       <c r="D140" t="s">
         <v>26</v>
       </c>
@@ -44063,7 +44067,7 @@
       </c>
     </row>
     <row r="141" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D141" t="s">
@@ -44115,7 +44119,7 @@
       </c>
     </row>
     <row r="142" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="13"/>
+      <c r="C142" s="32"/>
       <c r="D142" t="s">
         <v>25</v>
       </c>
@@ -44165,7 +44169,7 @@
       </c>
     </row>
     <row r="143" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C143" s="13"/>
+      <c r="C143" s="32"/>
       <c r="D143" t="s">
         <v>26</v>
       </c>
@@ -44215,7 +44219,7 @@
       </c>
     </row>
     <row r="144" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D144" t="s">
@@ -44267,7 +44271,7 @@
       </c>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C145" s="13"/>
+      <c r="C145" s="32"/>
       <c r="D145" t="s">
         <v>25</v>
       </c>
@@ -44317,7 +44321,7 @@
       </c>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C146" s="13"/>
+      <c r="C146" s="32"/>
       <c r="D146" t="s">
         <v>26</v>
       </c>
@@ -44367,7 +44371,7 @@
       </c>
     </row>
     <row r="149" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B149" s="25"/>
+      <c r="B149" s="21"/>
       <c r="E149" s="11" t="s">
         <v>2</v>
       </c>
@@ -44403,11 +44407,11 @@
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B150" s="26"/>
-      <c r="C150" s="21" t="s">
+      <c r="B150" s="22"/>
+      <c r="C150" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E150">
@@ -44456,8 +44460,8 @@
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C151" s="22"/>
-      <c r="D151" s="24" t="s">
+      <c r="C151" s="34"/>
+      <c r="D151" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E151">
@@ -44506,8 +44510,8 @@
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C152" s="23"/>
-      <c r="D152" s="20" t="s">
+      <c r="C152" s="35"/>
+      <c r="D152" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E152">
@@ -44556,10 +44560,10 @@
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E153">
@@ -44608,8 +44612,8 @@
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C154" s="22"/>
-      <c r="D154" s="24" t="s">
+      <c r="C154" s="34"/>
+      <c r="D154" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E154">
@@ -44658,8 +44662,8 @@
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C155" s="23"/>
-      <c r="D155" s="20" t="s">
+      <c r="C155" s="35"/>
+      <c r="D155" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E155">
@@ -44708,10 +44712,10 @@
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D156" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E156">
@@ -44760,8 +44764,8 @@
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="22"/>
-      <c r="D157" s="24" t="s">
+      <c r="C157" s="34"/>
+      <c r="D157" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E157">
@@ -44810,8 +44814,8 @@
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C158" s="23"/>
-      <c r="D158" s="20" t="s">
+      <c r="C158" s="35"/>
+      <c r="D158" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E158">
@@ -44874,7 +44878,7 @@
       </c>
     </row>
     <row r="251" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q251" s="28">
+      <c r="Q251" s="23">
         <v>44013</v>
       </c>
       <c r="R251">
@@ -44882,7 +44886,7 @@
       </c>
     </row>
     <row r="252" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q252" s="28">
+      <c r="Q252" s="23">
         <v>44014</v>
       </c>
       <c r="R252">
@@ -44890,7 +44894,7 @@
       </c>
     </row>
     <row r="253" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q253" s="28">
+      <c r="Q253" s="23">
         <v>44015</v>
       </c>
       <c r="R253">
@@ -44898,7 +44902,7 @@
       </c>
     </row>
     <row r="254" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q254" s="28">
+      <c r="Q254" s="23">
         <v>44016</v>
       </c>
       <c r="R254">
@@ -44906,7 +44910,7 @@
       </c>
     </row>
     <row r="255" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q255" s="28">
+      <c r="Q255" s="23">
         <v>44017</v>
       </c>
       <c r="R255">
@@ -44914,7 +44918,7 @@
       </c>
     </row>
     <row r="256" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q256" s="28">
+      <c r="Q256" s="23">
         <v>44018</v>
       </c>
       <c r="R256">
@@ -44922,7 +44926,7 @@
       </c>
     </row>
     <row r="257" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q257" s="28">
+      <c r="Q257" s="23">
         <v>44019</v>
       </c>
       <c r="R257">
@@ -44930,7 +44934,7 @@
       </c>
     </row>
     <row r="258" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q258" s="28">
+      <c r="Q258" s="23">
         <v>44020</v>
       </c>
       <c r="R258">
@@ -44938,7 +44942,7 @@
       </c>
     </row>
     <row r="259" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q259" s="28">
+      <c r="Q259" s="23">
         <v>44021</v>
       </c>
       <c r="R259">
@@ -44946,7 +44950,7 @@
       </c>
     </row>
     <row r="260" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q260" s="28">
+      <c r="Q260" s="23">
         <v>44022</v>
       </c>
       <c r="R260">
@@ -44954,7 +44958,7 @@
       </c>
     </row>
     <row r="261" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q261" s="28">
+      <c r="Q261" s="23">
         <v>44023</v>
       </c>
       <c r="R261">
@@ -44962,7 +44966,7 @@
       </c>
     </row>
     <row r="262" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q262" s="28">
+      <c r="Q262" s="23">
         <v>44024</v>
       </c>
       <c r="R262">
@@ -44970,7 +44974,7 @@
       </c>
     </row>
     <row r="263" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q263" s="28">
+      <c r="Q263" s="23">
         <v>44025</v>
       </c>
       <c r="R263">
@@ -44978,7 +44982,7 @@
       </c>
     </row>
     <row r="264" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q264" s="28">
+      <c r="Q264" s="23">
         <v>44026</v>
       </c>
       <c r="R264">
@@ -44986,7 +44990,7 @@
       </c>
     </row>
     <row r="265" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q265" s="28">
+      <c r="Q265" s="23">
         <v>44027</v>
       </c>
       <c r="R265">
@@ -44994,7 +44998,7 @@
       </c>
     </row>
     <row r="266" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q266" s="28">
+      <c r="Q266" s="23">
         <v>44028</v>
       </c>
       <c r="R266">
@@ -45002,7 +45006,7 @@
       </c>
     </row>
     <row r="267" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q267" s="28">
+      <c r="Q267" s="23">
         <v>44029</v>
       </c>
       <c r="R267">
@@ -45010,7 +45014,7 @@
       </c>
     </row>
     <row r="268" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q268" s="28">
+      <c r="Q268" s="23">
         <v>44030</v>
       </c>
       <c r="R268">
@@ -45018,7 +45022,7 @@
       </c>
     </row>
     <row r="269" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q269" s="28">
+      <c r="Q269" s="23">
         <v>44031</v>
       </c>
       <c r="R269">
@@ -45026,7 +45030,7 @@
       </c>
     </row>
     <row r="270" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q270" s="28">
+      <c r="Q270" s="23">
         <v>44032</v>
       </c>
       <c r="R270">
@@ -45034,7 +45038,7 @@
       </c>
     </row>
     <row r="271" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q271" s="28">
+      <c r="Q271" s="23">
         <v>44033</v>
       </c>
       <c r="R271">
@@ -45042,7 +45046,7 @@
       </c>
     </row>
     <row r="272" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q272" s="28">
+      <c r="Q272" s="23">
         <v>44034</v>
       </c>
       <c r="R272">
@@ -45050,7 +45054,7 @@
       </c>
     </row>
     <row r="273" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q273" s="28">
+      <c r="Q273" s="23">
         <v>44035</v>
       </c>
       <c r="R273">
@@ -45058,7 +45062,7 @@
       </c>
     </row>
     <row r="274" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q274" s="28">
+      <c r="Q274" s="23">
         <v>44036</v>
       </c>
       <c r="R274">
@@ -45066,7 +45070,7 @@
       </c>
     </row>
     <row r="275" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q275" s="28">
+      <c r="Q275" s="23">
         <v>44037</v>
       </c>
       <c r="R275">
@@ -45074,7 +45078,7 @@
       </c>
     </row>
     <row r="276" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q276" s="28">
+      <c r="Q276" s="23">
         <v>44038</v>
       </c>
       <c r="R276">
@@ -45082,7 +45086,7 @@
       </c>
     </row>
     <row r="277" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q277" s="28">
+      <c r="Q277" s="23">
         <v>44039</v>
       </c>
       <c r="R277">
@@ -45090,7 +45094,7 @@
       </c>
     </row>
     <row r="278" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q278" s="28">
+      <c r="Q278" s="23">
         <v>44040</v>
       </c>
       <c r="R278">
@@ -45098,7 +45102,7 @@
       </c>
     </row>
     <row r="279" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q279" s="28">
+      <c r="Q279" s="23">
         <v>44041</v>
       </c>
       <c r="R279">
@@ -45106,7 +45110,7 @@
       </c>
     </row>
     <row r="280" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q280" s="28">
+      <c r="Q280" s="23">
         <v>44042</v>
       </c>
       <c r="R280">
@@ -45114,7 +45118,7 @@
       </c>
     </row>
     <row r="281" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q281" s="28">
+      <c r="Q281" s="23">
         <v>44043</v>
       </c>
       <c r="R281">
@@ -45122,7 +45126,7 @@
       </c>
     </row>
     <row r="282" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q282" s="28">
+      <c r="Q282" s="23">
         <v>44044</v>
       </c>
       <c r="R282">
@@ -45130,7 +45134,7 @@
       </c>
     </row>
     <row r="283" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q283" s="28">
+      <c r="Q283" s="23">
         <v>44045</v>
       </c>
       <c r="R283">
@@ -45138,7 +45142,7 @@
       </c>
     </row>
     <row r="284" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q284" s="28">
+      <c r="Q284" s="23">
         <v>44046</v>
       </c>
       <c r="R284">
@@ -45146,7 +45150,7 @@
       </c>
     </row>
     <row r="285" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q285" s="28">
+      <c r="Q285" s="23">
         <v>44047</v>
       </c>
       <c r="R285">
@@ -45154,7 +45158,7 @@
       </c>
     </row>
     <row r="286" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q286" s="28">
+      <c r="Q286" s="23">
         <v>44048</v>
       </c>
       <c r="R286">
@@ -45162,343 +45166,343 @@
       </c>
     </row>
     <row r="287" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q287" s="28">
+      <c r="Q287" s="23">
         <v>44049</v>
       </c>
       <c r="S287">
         <v>18</v>
       </c>
-      <c r="T287" s="15">
+      <c r="T287" s="14">
         <v>13.321892393321001</v>
       </c>
     </row>
     <row r="288" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q288" s="28">
+      <c r="Q288" s="23">
         <v>44050</v>
       </c>
       <c r="S288">
         <v>13</v>
       </c>
-      <c r="T288" s="14">
+      <c r="T288" s="13">
         <v>12.8673469387755</v>
       </c>
     </row>
     <row r="289" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q289" s="28">
+      <c r="Q289" s="23">
         <v>44051</v>
       </c>
       <c r="S289">
         <v>13</v>
       </c>
-      <c r="T289" s="15">
+      <c r="T289" s="14">
         <v>10.4128014842301</v>
       </c>
     </row>
     <row r="290" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q290" s="28">
+      <c r="Q290" s="23">
         <v>44052</v>
       </c>
       <c r="S290">
         <v>7</v>
       </c>
-      <c r="T290" s="14">
+      <c r="T290" s="13">
         <v>8.4582560296846001</v>
       </c>
     </row>
     <row r="291" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q291" s="28">
+      <c r="Q291" s="23">
         <v>44053</v>
       </c>
       <c r="S291">
         <v>2</v>
       </c>
-      <c r="T291" s="15">
+      <c r="T291" s="14">
         <v>9.3673469387755102</v>
       </c>
     </row>
     <row r="292" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q292" s="28">
+      <c r="Q292" s="23">
         <v>44054</v>
       </c>
       <c r="S292">
         <v>12</v>
       </c>
-      <c r="T292" s="14">
+      <c r="T292" s="13">
         <v>14.321892393321001</v>
       </c>
     </row>
     <row r="293" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q293" s="28">
+      <c r="Q293" s="23">
         <v>44055</v>
       </c>
       <c r="S293">
         <v>9</v>
       </c>
-      <c r="T293" s="15">
+      <c r="T293" s="14">
         <v>15.549165120593701</v>
       </c>
     </row>
     <row r="294" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q294" s="28">
+      <c r="Q294" s="23">
         <v>44056</v>
       </c>
       <c r="S294">
         <v>14</v>
       </c>
-      <c r="T294" s="14">
+      <c r="T294" s="13">
         <v>13.3775510204082</v>
       </c>
     </row>
     <row r="295" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q295" s="28">
+      <c r="Q295" s="23">
         <v>44057</v>
       </c>
       <c r="S295">
         <v>14</v>
       </c>
-      <c r="T295" s="15">
+      <c r="T295" s="14">
         <v>12.923005565862701</v>
       </c>
     </row>
     <row r="296" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q296" s="28">
+      <c r="Q296" s="23">
         <v>44058</v>
       </c>
       <c r="S296">
         <v>11</v>
       </c>
-      <c r="T296" s="14">
+      <c r="T296" s="13">
         <v>10.468460111317301</v>
       </c>
     </row>
     <row r="297" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q297" s="28">
+      <c r="Q297" s="23">
         <v>44059</v>
       </c>
       <c r="S297">
         <v>8</v>
       </c>
-      <c r="T297" s="15">
+      <c r="T297" s="14">
         <v>8.5139146567717994</v>
       </c>
     </row>
     <row r="298" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q298" s="28">
+      <c r="Q298" s="23">
         <v>44060</v>
       </c>
       <c r="S298">
         <v>8</v>
       </c>
-      <c r="T298" s="14">
+      <c r="T298" s="13">
         <v>9.4230055658627094</v>
       </c>
     </row>
     <row r="299" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q299" s="28">
+      <c r="Q299" s="23">
         <v>44061</v>
       </c>
       <c r="S299">
         <v>11</v>
       </c>
-      <c r="T299" s="15">
+      <c r="T299" s="14">
         <v>14.3775510204082</v>
       </c>
     </row>
     <row r="300" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q300" s="28">
+      <c r="Q300" s="23">
         <v>44062</v>
       </c>
       <c r="S300">
         <v>17</v>
       </c>
-      <c r="T300" s="14">
+      <c r="T300" s="13">
         <v>15.6048237476809</v>
       </c>
     </row>
     <row r="301" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q301" s="28">
+      <c r="Q301" s="23">
         <v>44063</v>
       </c>
       <c r="S301">
         <v>12</v>
       </c>
-      <c r="T301" s="15">
+      <c r="T301" s="14">
         <v>13.433209647495399</v>
       </c>
     </row>
     <row r="302" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q302" s="28">
+      <c r="Q302" s="23">
         <v>44064</v>
       </c>
       <c r="S302">
         <v>13</v>
       </c>
-      <c r="T302" s="14">
+      <c r="T302" s="13">
         <v>12.9786641929499</v>
       </c>
     </row>
     <row r="303" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q303" s="28">
+      <c r="Q303" s="23">
         <v>44065</v>
       </c>
       <c r="S303">
         <v>13</v>
       </c>
-      <c r="T303" s="15">
+      <c r="T303" s="14">
         <v>10.5241187384045</v>
       </c>
     </row>
     <row r="304" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q304" s="28">
+      <c r="Q304" s="23">
         <v>44066</v>
       </c>
       <c r="S304">
         <v>4</v>
       </c>
-      <c r="T304" s="14">
+      <c r="T304" s="13">
         <v>8.5695732838590004</v>
       </c>
     </row>
     <row r="305" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q305" s="28">
+      <c r="Q305" s="23">
         <v>44067</v>
       </c>
       <c r="S305">
         <v>5</v>
       </c>
-      <c r="T305" s="15">
+      <c r="T305" s="14">
         <v>9.4786641929499105</v>
       </c>
     </row>
     <row r="306" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q306" s="28">
+      <c r="Q306" s="23">
         <v>44068</v>
       </c>
       <c r="S306">
         <v>17</v>
       </c>
-      <c r="T306" s="14">
+      <c r="T306" s="13">
         <v>14.433209647495399</v>
       </c>
     </row>
     <row r="307" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q307" s="28">
+      <c r="Q307" s="23">
         <v>44069</v>
       </c>
       <c r="S307">
         <v>17</v>
       </c>
-      <c r="T307" s="15">
+      <c r="T307" s="14">
         <v>15.660482374768099</v>
       </c>
     </row>
     <row r="308" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q308" s="28">
+      <c r="Q308" s="23">
         <v>44070</v>
       </c>
       <c r="S308">
         <v>16</v>
       </c>
-      <c r="T308" s="14">
+      <c r="T308" s="13">
         <v>13.4888682745826</v>
       </c>
     </row>
     <row r="309" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q309" s="28">
+      <c r="Q309" s="23">
         <v>44071</v>
       </c>
       <c r="S309">
         <v>8</v>
       </c>
-      <c r="T309" s="15">
+      <c r="T309" s="14">
         <v>13.034322820037101</v>
       </c>
     </row>
     <row r="310" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q310" s="28">
+      <c r="Q310" s="23">
         <v>44072</v>
       </c>
       <c r="S310">
         <v>14</v>
       </c>
-      <c r="T310" s="14">
+      <c r="T310" s="13">
         <v>10.579777365491699</v>
       </c>
     </row>
     <row r="311" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q311" s="28">
+      <c r="Q311" s="23">
         <v>44073</v>
       </c>
       <c r="S311">
         <v>1</v>
       </c>
-      <c r="T311" s="15">
+      <c r="T311" s="14">
         <v>8.6252319109461908</v>
       </c>
     </row>
     <row r="312" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q312" s="28">
+      <c r="Q312" s="23">
         <v>44074</v>
       </c>
       <c r="S312">
         <v>6</v>
       </c>
-      <c r="T312" s="14">
+      <c r="T312" s="13">
         <v>9.5343228200371009</v>
       </c>
     </row>
     <row r="313" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q313" s="28">
+      <c r="Q313" s="23">
         <v>44075</v>
       </c>
       <c r="S313">
         <v>19</v>
       </c>
-      <c r="T313" s="15">
+      <c r="T313" s="14">
         <v>14.4888682745826</v>
       </c>
     </row>
     <row r="314" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q314" s="28">
+      <c r="Q314" s="23">
         <v>44076</v>
       </c>
       <c r="S314">
         <v>20</v>
       </c>
-      <c r="T314" s="14">
+      <c r="T314" s="13">
         <v>15.7161410018553</v>
       </c>
     </row>
     <row r="315" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q315" s="28">
+      <c r="Q315" s="23">
         <v>44077</v>
       </c>
       <c r="S315">
         <v>14</v>
       </c>
-      <c r="T315" s="15">
+      <c r="T315" s="14">
         <v>13.5445269016698</v>
       </c>
     </row>
     <row r="316" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q316" s="28">
+      <c r="Q316" s="23">
         <v>44078</v>
       </c>
       <c r="S316">
         <v>8</v>
       </c>
-      <c r="T316" s="14">
+      <c r="T316" s="13">
         <v>13.0899814471243</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C156:C158"/>
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="C141:C143"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51369,7 +51373,7 @@
       </c>
     </row>
     <row r="138" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D138" t="s">
@@ -51421,7 +51425,7 @@
       </c>
     </row>
     <row r="139" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C139" s="13"/>
+      <c r="C139" s="32"/>
       <c r="D139" t="s">
         <v>25</v>
       </c>
@@ -51471,7 +51475,7 @@
       </c>
     </row>
     <row r="140" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C140" s="13"/>
+      <c r="C140" s="32"/>
       <c r="D140" t="s">
         <v>26</v>
       </c>
@@ -51521,7 +51525,7 @@
       </c>
     </row>
     <row r="141" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D141" t="s">
@@ -51573,7 +51577,7 @@
       </c>
     </row>
     <row r="142" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="13"/>
+      <c r="C142" s="32"/>
       <c r="D142" t="s">
         <v>25</v>
       </c>
@@ -51623,7 +51627,7 @@
       </c>
     </row>
     <row r="143" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C143" s="13"/>
+      <c r="C143" s="32"/>
       <c r="D143" t="s">
         <v>26</v>
       </c>
@@ -51673,7 +51677,7 @@
       </c>
     </row>
     <row r="144" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D144" t="s">
@@ -51725,7 +51729,7 @@
       </c>
     </row>
     <row r="145" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C145" s="13"/>
+      <c r="C145" s="32"/>
       <c r="D145" t="s">
         <v>25</v>
       </c>
@@ -51775,7 +51779,7 @@
       </c>
     </row>
     <row r="146" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C146" s="13"/>
+      <c r="C146" s="32"/>
       <c r="D146" t="s">
         <v>26</v>
       </c>
@@ -51825,8 +51829,8 @@
       </c>
     </row>
     <row r="149" spans="3:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
       <c r="E149" s="11" t="s">
         <v>2</v>
       </c>
@@ -51862,10 +51866,10 @@
       </c>
     </row>
     <row r="150" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E150">
@@ -51914,8 +51918,8 @@
       </c>
     </row>
     <row r="151" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C151" s="22"/>
-      <c r="D151" s="24" t="s">
+      <c r="C151" s="34"/>
+      <c r="D151" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E151">
@@ -51964,8 +51968,8 @@
       </c>
     </row>
     <row r="152" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C152" s="23"/>
-      <c r="D152" s="20" t="s">
+      <c r="C152" s="35"/>
+      <c r="D152" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E152">
@@ -52014,10 +52018,10 @@
       </c>
     </row>
     <row r="153" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E153">
@@ -52066,8 +52070,8 @@
       </c>
     </row>
     <row r="154" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C154" s="22"/>
-      <c r="D154" s="24" t="s">
+      <c r="C154" s="34"/>
+      <c r="D154" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E154">
@@ -52116,8 +52120,8 @@
       </c>
     </row>
     <row r="155" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C155" s="23"/>
-      <c r="D155" s="30" t="s">
+      <c r="C155" s="35"/>
+      <c r="D155" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E155">
@@ -52166,10 +52170,10 @@
       </c>
     </row>
     <row r="156" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D156" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E156">
@@ -52218,8 +52222,8 @@
       </c>
     </row>
     <row r="157" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="22"/>
-      <c r="D157" s="29" t="s">
+      <c r="C157" s="34"/>
+      <c r="D157" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E157">
@@ -52268,8 +52272,8 @@
       </c>
     </row>
     <row r="158" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C158" s="23"/>
-      <c r="D158" s="24" t="s">
+      <c r="C158" s="35"/>
+      <c r="D158" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E158">
@@ -52332,7 +52336,7 @@
       </c>
     </row>
     <row r="254" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q254" s="28">
+      <c r="Q254" s="23">
         <v>44114</v>
       </c>
       <c r="R254">
@@ -52340,7 +52344,7 @@
       </c>
     </row>
     <row r="255" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q255" s="28">
+      <c r="Q255" s="23">
         <v>44115</v>
       </c>
       <c r="R255">
@@ -52348,7 +52352,7 @@
       </c>
     </row>
     <row r="256" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q256" s="28">
+      <c r="Q256" s="23">
         <v>44116</v>
       </c>
       <c r="R256">
@@ -52356,7 +52360,7 @@
       </c>
     </row>
     <row r="257" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q257" s="28">
+      <c r="Q257" s="23">
         <v>44117</v>
       </c>
       <c r="R257">
@@ -52364,7 +52368,7 @@
       </c>
     </row>
     <row r="258" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q258" s="28">
+      <c r="Q258" s="23">
         <v>44118</v>
       </c>
       <c r="R258">
@@ -52372,7 +52376,7 @@
       </c>
     </row>
     <row r="259" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q259" s="28">
+      <c r="Q259" s="23">
         <v>44119</v>
       </c>
       <c r="R259">
@@ -52380,7 +52384,7 @@
       </c>
     </row>
     <row r="260" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q260" s="28">
+      <c r="Q260" s="23">
         <v>44120</v>
       </c>
       <c r="R260">
@@ -52388,7 +52392,7 @@
       </c>
     </row>
     <row r="261" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q261" s="28">
+      <c r="Q261" s="23">
         <v>44121</v>
       </c>
       <c r="R261">
@@ -52396,7 +52400,7 @@
       </c>
     </row>
     <row r="262" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q262" s="28">
+      <c r="Q262" s="23">
         <v>44122</v>
       </c>
       <c r="R262">
@@ -52404,7 +52408,7 @@
       </c>
     </row>
     <row r="263" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q263" s="28">
+      <c r="Q263" s="23">
         <v>44123</v>
       </c>
       <c r="R263">
@@ -52412,7 +52416,7 @@
       </c>
     </row>
     <row r="264" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q264" s="28">
+      <c r="Q264" s="23">
         <v>44124</v>
       </c>
       <c r="R264">
@@ -52420,344 +52424,344 @@
       </c>
     </row>
     <row r="265" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q265" s="28">
+      <c r="Q265" s="23">
         <v>44125</v>
       </c>
       <c r="S265">
         <v>130</v>
       </c>
-      <c r="T265" s="31">
+      <c r="T265" s="26">
         <v>182.34191074780375</v>
       </c>
     </row>
     <row r="266" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q266" s="28">
+      <c r="Q266" s="23">
         <v>44126</v>
       </c>
       <c r="S266">
         <v>168</v>
       </c>
-      <c r="T266" s="32">
+      <c r="T266" s="27">
         <v>169.23489478703638</v>
       </c>
     </row>
     <row r="267" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q267" s="28">
+      <c r="Q267" s="23">
         <v>44127</v>
       </c>
       <c r="S267">
         <v>153</v>
       </c>
-      <c r="T267" s="31">
+      <c r="T267" s="26">
         <v>155.06820694408134</v>
       </c>
     </row>
     <row r="268" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q268" s="28">
+      <c r="Q268" s="23">
         <v>44128</v>
       </c>
       <c r="S268">
         <v>179</v>
       </c>
-      <c r="T268" s="32">
+      <c r="T268" s="27">
         <v>126.46001505050604</v>
       </c>
     </row>
     <row r="269" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q269" s="28">
+      <c r="Q269" s="23">
         <v>44129</v>
       </c>
       <c r="S269">
         <v>87</v>
       </c>
-      <c r="T269" s="31">
+      <c r="T269" s="26">
         <v>60.115763232117231</v>
       </c>
     </row>
     <row r="270" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q270" s="28">
+      <c r="Q270" s="23">
         <v>44130</v>
       </c>
       <c r="S270">
         <v>45</v>
       </c>
-      <c r="T270" s="32">
+      <c r="T270" s="27">
         <v>66.824661162513038</v>
       </c>
     </row>
     <row r="271" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q271" s="28">
+      <c r="Q271" s="23">
         <v>44131</v>
       </c>
       <c r="S271">
         <v>132</v>
       </c>
-      <c r="T271" s="31">
+      <c r="T271" s="26">
         <v>246.43111622926281</v>
       </c>
     </row>
     <row r="272" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q272" s="28">
+      <c r="Q272" s="23">
         <v>44132</v>
       </c>
       <c r="S272">
         <v>236</v>
       </c>
-      <c r="T272" s="32">
+      <c r="T272" s="27">
         <v>284.71604285771679</v>
       </c>
     </row>
     <row r="273" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q273" s="28">
+      <c r="Q273" s="23">
         <v>44133</v>
       </c>
       <c r="S273">
         <v>298</v>
       </c>
-      <c r="T273" s="31">
+      <c r="T273" s="26">
         <v>261.23885703720737</v>
       </c>
     </row>
     <row r="274" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q274" s="28">
+      <c r="Q274" s="23">
         <v>44134</v>
       </c>
       <c r="S274">
         <v>202</v>
       </c>
-      <c r="T274" s="32">
+      <c r="T274" s="27">
         <v>236.46463701124276</v>
       </c>
     </row>
     <row r="275" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q275" s="28">
+      <c r="Q275" s="23">
         <v>44135</v>
       </c>
       <c r="S275">
         <v>280</v>
       </c>
-      <c r="T275" s="31">
+      <c r="T275" s="26">
         <v>188.80023414499553</v>
       </c>
     </row>
     <row r="276" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q276" s="28">
+      <c r="Q276" s="23">
         <v>44136</v>
       </c>
       <c r="S276">
         <v>152</v>
       </c>
-      <c r="T276" s="32">
+      <c r="T276" s="27">
         <v>84.340614830965578</v>
       </c>
     </row>
     <row r="277" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q277" s="28">
+      <c r="Q277" s="23">
         <v>44137</v>
       </c>
       <c r="S277">
         <v>92</v>
       </c>
-      <c r="T277" s="31">
+      <c r="T277" s="26">
         <v>94.138848087089031</v>
       </c>
     </row>
     <row r="278" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q278" s="28">
+      <c r="Q278" s="23">
         <v>44138</v>
       </c>
       <c r="S278">
         <v>227</v>
       </c>
-      <c r="T278" s="32">
+      <c r="T278" s="27">
         <v>382.13671249467347</v>
       </c>
     </row>
     <row r="279" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q279" s="28">
+      <c r="Q279" s="23">
         <v>44139</v>
       </c>
       <c r="S279">
         <v>373</v>
       </c>
-      <c r="T279" s="31">
+      <c r="T279" s="26">
         <v>444.25366193310794</v>
       </c>
     </row>
     <row r="280" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q280" s="28">
+      <c r="Q280" s="23">
         <v>44140</v>
       </c>
       <c r="S280">
         <v>367</v>
       </c>
-      <c r="T280" s="32">
+      <c r="T280" s="27">
         <v>402.96663813380411</v>
       </c>
     </row>
     <row r="281" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q281" s="28">
+      <c r="Q281" s="23">
         <v>44141</v>
       </c>
       <c r="S281">
         <v>445</v>
       </c>
-      <c r="T281" s="31">
+      <c r="T281" s="26">
         <v>360.31288322602069</v>
       </c>
     </row>
     <row r="282" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q282" s="28">
+      <c r="Q282" s="23">
         <v>44142</v>
       </c>
       <c r="S282">
         <v>349</v>
       </c>
-      <c r="T282" s="32">
+      <c r="T282" s="27">
         <v>281.63082243651496</v>
       </c>
     </row>
     <row r="283" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q283" s="28">
+      <c r="Q283" s="23">
         <v>44143</v>
       </c>
       <c r="S283">
         <v>236</v>
       </c>
-      <c r="T283" s="31">
+      <c r="T283" s="26">
         <v>118.16762803184436</v>
       </c>
     </row>
     <row r="284" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q284" s="28">
+      <c r="Q284" s="23">
         <v>44144</v>
       </c>
       <c r="S284">
         <v>173</v>
       </c>
-      <c r="T284" s="32">
+      <c r="T284" s="27">
         <v>132.45293968591088</v>
       </c>
     </row>
     <row r="285" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q285" s="28">
+      <c r="Q285" s="23">
         <v>44145</v>
       </c>
       <c r="S285">
         <v>330</v>
       </c>
-      <c r="T285" s="31">
+      <c r="T285" s="26">
         <v>592.2711402603511</v>
       </c>
     </row>
     <row r="286" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q286" s="28">
+      <c r="Q286" s="23">
         <v>44146</v>
       </c>
       <c r="S286">
         <v>430</v>
       </c>
-      <c r="T286" s="32">
+      <c r="T286" s="27">
         <v>692.87361480282402</v>
       </c>
     </row>
     <row r="287" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q287" s="28">
+      <c r="Q287" s="23">
         <v>44147</v>
       </c>
       <c r="S287">
         <v>275</v>
       </c>
-      <c r="T287" s="31">
+      <c r="T287" s="26">
         <v>621.29162592015882</v>
       </c>
     </row>
     <row r="288" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q288" s="28">
+      <c r="Q288" s="23">
         <v>44148</v>
       </c>
       <c r="S288">
         <v>419</v>
       </c>
-      <c r="T288" s="32">
+      <c r="T288" s="27">
         <v>548.75343372461521</v>
       </c>
     </row>
     <row r="289" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q289" s="28">
+      <c r="Q289" s="23">
         <v>44149</v>
       </c>
       <c r="S289">
         <v>546</v>
       </c>
-      <c r="T289" s="31">
+      <c r="T289" s="26">
         <v>419.86450604753958</v>
       </c>
     </row>
     <row r="290" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q290" s="28">
+      <c r="Q290" s="23">
         <v>44150</v>
       </c>
       <c r="S290">
         <v>303</v>
       </c>
-      <c r="T290" s="32">
+      <c r="T290" s="27">
         <v>165.40287392894746</v>
       </c>
     </row>
     <row r="291" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q291" s="28">
+      <c r="Q291" s="23">
         <v>44151</v>
       </c>
       <c r="S291">
         <v>143</v>
       </c>
-      <c r="T291" s="31">
+      <c r="T291" s="26">
         <v>186.19679151999591</v>
       </c>
     </row>
     <row r="292" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q292" s="28">
+      <c r="Q292" s="23">
         <v>44152</v>
       </c>
       <c r="S292">
         <v>357</v>
       </c>
-      <c r="T292" s="32">
+      <c r="T292" s="27">
         <v>917.6554939464595</v>
       </c>
     </row>
     <row r="293" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q293" s="28">
+      <c r="Q293" s="23">
         <v>44153</v>
       </c>
       <c r="S293">
         <v>603</v>
       </c>
-      <c r="T293" s="31">
+      <c r="T293" s="26">
         <v>1080.3175375789924</v>
       </c>
     </row>
     <row r="294" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q294" s="28">
+      <c r="Q294" s="23">
         <v>44154</v>
       </c>
       <c r="S294">
         <v>637</v>
       </c>
-      <c r="T294" s="32">
+      <c r="T294" s="27">
         <v>957.61101173926249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C149:D149"/>
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="C141:C143"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C149:D149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52772,8 +52776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T330"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N188" sqref="N188"/>
+    <sheetView topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P167" sqref="P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58627,7 +58631,7 @@
       </c>
     </row>
     <row r="138" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D138" t="s">
@@ -58679,7 +58683,7 @@
       </c>
     </row>
     <row r="139" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C139" s="13"/>
+      <c r="C139" s="32"/>
       <c r="D139" t="s">
         <v>25</v>
       </c>
@@ -58729,7 +58733,7 @@
       </c>
     </row>
     <row r="140" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C140" s="13"/>
+      <c r="C140" s="32"/>
       <c r="D140" t="s">
         <v>26</v>
       </c>
@@ -58779,7 +58783,7 @@
       </c>
     </row>
     <row r="141" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D141" t="s">
@@ -58831,7 +58835,7 @@
       </c>
     </row>
     <row r="142" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="13"/>
+      <c r="C142" s="32"/>
       <c r="D142" t="s">
         <v>25</v>
       </c>
@@ -58881,7 +58885,7 @@
       </c>
     </row>
     <row r="143" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C143" s="13"/>
+      <c r="C143" s="32"/>
       <c r="D143" t="s">
         <v>26</v>
       </c>
@@ -58931,7 +58935,7 @@
       </c>
     </row>
     <row r="144" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D144" t="s">
@@ -58983,7 +58987,7 @@
       </c>
     </row>
     <row r="145" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C145" s="13"/>
+      <c r="C145" s="32"/>
       <c r="D145" t="s">
         <v>25</v>
       </c>
@@ -59033,7 +59037,7 @@
       </c>
     </row>
     <row r="146" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C146" s="13"/>
+      <c r="C146" s="32"/>
       <c r="D146" t="s">
         <v>26</v>
       </c>
@@ -59083,6 +59087,8 @@
       </c>
     </row>
     <row r="149" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
       <c r="E149" s="11" t="s">
         <v>2</v>
       </c>
@@ -59118,10 +59124,10 @@
       </c>
     </row>
     <row r="150" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E150">
@@ -59170,8 +59176,8 @@
       </c>
     </row>
     <row r="151" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C151" s="13"/>
-      <c r="D151" t="s">
+      <c r="C151" s="34"/>
+      <c r="D151" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E151">
@@ -59220,8 +59226,8 @@
       </c>
     </row>
     <row r="152" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C152" s="13"/>
-      <c r="D152" t="s">
+      <c r="C152" s="35"/>
+      <c r="D152" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E152">
@@ -59270,10 +59276,10 @@
       </c>
     </row>
     <row r="153" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E153">
@@ -59322,8 +59328,8 @@
       </c>
     </row>
     <row r="154" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C154" s="13"/>
-      <c r="D154" t="s">
+      <c r="C154" s="34"/>
+      <c r="D154" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E154">
@@ -59372,8 +59378,8 @@
       </c>
     </row>
     <row r="155" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C155" s="13"/>
-      <c r="D155" t="s">
+      <c r="C155" s="35"/>
+      <c r="D155" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E155">
@@ -59422,13 +59428,13 @@
       </c>
     </row>
     <row r="156" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="40">
         <f>E140</f>
         <v>88.3319623336333</v>
       </c>
@@ -59474,8 +59480,8 @@
       </c>
     </row>
     <row r="157" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="13"/>
-      <c r="D157" t="s">
+      <c r="C157" s="34"/>
+      <c r="D157" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E157">
@@ -59524,11 +59530,11 @@
       </c>
     </row>
     <row r="158" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C158" s="13"/>
-      <c r="D158" t="s">
+      <c r="C158" s="35"/>
+      <c r="D158" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="40">
         <f>E146</f>
         <v>86.053957213899409</v>
       </c>
@@ -59573,6 +59579,9 @@
         <v>41.849944521400111</v>
       </c>
     </row>
+    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D159" s="39"/>
+    </row>
     <row r="257" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q257" t="s">
         <v>0</v>
@@ -59588,7 +59597,7 @@
       </c>
     </row>
     <row r="258" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q258" s="28">
+      <c r="Q258" s="23">
         <v>44228</v>
       </c>
       <c r="R258">
@@ -59596,7 +59605,7 @@
       </c>
     </row>
     <row r="259" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q259" s="28">
+      <c r="Q259" s="23">
         <v>44229</v>
       </c>
       <c r="R259">
@@ -59604,7 +59613,7 @@
       </c>
     </row>
     <row r="260" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q260" s="28">
+      <c r="Q260" s="23">
         <v>44230</v>
       </c>
       <c r="R260">
@@ -59612,7 +59621,7 @@
       </c>
     </row>
     <row r="261" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q261" s="28">
+      <c r="Q261" s="23">
         <v>44231</v>
       </c>
       <c r="R261">
@@ -59620,7 +59629,7 @@
       </c>
     </row>
     <row r="262" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q262" s="28">
+      <c r="Q262" s="23">
         <v>44232</v>
       </c>
       <c r="R262">
@@ -59628,7 +59637,7 @@
       </c>
     </row>
     <row r="263" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q263" s="28">
+      <c r="Q263" s="23">
         <v>44233</v>
       </c>
       <c r="R263">
@@ -59636,7 +59645,7 @@
       </c>
     </row>
     <row r="264" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q264" s="28">
+      <c r="Q264" s="23">
         <v>44234</v>
       </c>
       <c r="R264">
@@ -59644,7 +59653,7 @@
       </c>
     </row>
     <row r="265" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q265" s="28">
+      <c r="Q265" s="23">
         <v>44235</v>
       </c>
       <c r="R265">
@@ -59652,7 +59661,7 @@
       </c>
     </row>
     <row r="266" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q266" s="28">
+      <c r="Q266" s="23">
         <v>44236</v>
       </c>
       <c r="R266">
@@ -59660,7 +59669,7 @@
       </c>
     </row>
     <row r="267" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q267" s="28">
+      <c r="Q267" s="23">
         <v>44237</v>
       </c>
       <c r="R267">
@@ -59668,7 +59677,7 @@
       </c>
     </row>
     <row r="268" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q268" s="28">
+      <c r="Q268" s="23">
         <v>44238</v>
       </c>
       <c r="R268">
@@ -59676,7 +59685,7 @@
       </c>
     </row>
     <row r="269" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q269" s="28">
+      <c r="Q269" s="23">
         <v>44239</v>
       </c>
       <c r="R269">
@@ -59684,7 +59693,7 @@
       </c>
     </row>
     <row r="270" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q270" s="28">
+      <c r="Q270" s="23">
         <v>44240</v>
       </c>
       <c r="R270">
@@ -59692,7 +59701,7 @@
       </c>
     </row>
     <row r="271" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q271" s="28">
+      <c r="Q271" s="23">
         <v>44241</v>
       </c>
       <c r="R271">
@@ -59700,7 +59709,7 @@
       </c>
     </row>
     <row r="272" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q272" s="28">
+      <c r="Q272" s="23">
         <v>44242</v>
       </c>
       <c r="R272">
@@ -59708,7 +59717,7 @@
       </c>
     </row>
     <row r="273" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q273" s="28">
+      <c r="Q273" s="23">
         <v>44243</v>
       </c>
       <c r="R273">
@@ -59716,7 +59725,7 @@
       </c>
     </row>
     <row r="274" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q274" s="28">
+      <c r="Q274" s="23">
         <v>44244</v>
       </c>
       <c r="R274">
@@ -59724,7 +59733,7 @@
       </c>
     </row>
     <row r="275" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q275" s="28">
+      <c r="Q275" s="23">
         <v>44245</v>
       </c>
       <c r="R275">
@@ -59732,7 +59741,7 @@
       </c>
     </row>
     <row r="276" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q276" s="28">
+      <c r="Q276" s="23">
         <v>44246</v>
       </c>
       <c r="R276">
@@ -59740,7 +59749,7 @@
       </c>
     </row>
     <row r="277" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q277" s="28">
+      <c r="Q277" s="23">
         <v>44247</v>
       </c>
       <c r="R277">
@@ -59748,7 +59757,7 @@
       </c>
     </row>
     <row r="278" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q278" s="28">
+      <c r="Q278" s="23">
         <v>44248</v>
       </c>
       <c r="R278">
@@ -59756,7 +59765,7 @@
       </c>
     </row>
     <row r="279" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q279" s="28">
+      <c r="Q279" s="23">
         <v>44249</v>
       </c>
       <c r="R279">
@@ -59764,7 +59773,7 @@
       </c>
     </row>
     <row r="280" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q280" s="28">
+      <c r="Q280" s="23">
         <v>44250</v>
       </c>
       <c r="R280">
@@ -59772,7 +59781,7 @@
       </c>
     </row>
     <row r="281" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q281" s="28">
+      <c r="Q281" s="23">
         <v>44251</v>
       </c>
       <c r="R281">
@@ -59780,7 +59789,7 @@
       </c>
     </row>
     <row r="282" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q282" s="28">
+      <c r="Q282" s="23">
         <v>44252</v>
       </c>
       <c r="R282">
@@ -59788,7 +59797,7 @@
       </c>
     </row>
     <row r="283" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q283" s="28">
+      <c r="Q283" s="23">
         <v>44253</v>
       </c>
       <c r="R283">
@@ -59796,7 +59805,7 @@
       </c>
     </row>
     <row r="284" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q284" s="28">
+      <c r="Q284" s="23">
         <v>44254</v>
       </c>
       <c r="R284">
@@ -59804,7 +59813,7 @@
       </c>
     </row>
     <row r="285" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q285" s="28">
+      <c r="Q285" s="23">
         <v>44255</v>
       </c>
       <c r="R285">
@@ -59812,7 +59821,7 @@
       </c>
     </row>
     <row r="286" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q286" s="28">
+      <c r="Q286" s="23">
         <v>44256</v>
       </c>
       <c r="R286">
@@ -59820,7 +59829,7 @@
       </c>
     </row>
     <row r="287" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q287" s="28">
+      <c r="Q287" s="23">
         <v>44257</v>
       </c>
       <c r="R287">
@@ -59828,7 +59837,7 @@
       </c>
     </row>
     <row r="288" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q288" s="28">
+      <c r="Q288" s="23">
         <v>44258</v>
       </c>
       <c r="R288">
@@ -59836,7 +59845,7 @@
       </c>
     </row>
     <row r="289" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q289" s="28">
+      <c r="Q289" s="23">
         <v>44259</v>
       </c>
       <c r="R289">
@@ -59844,7 +59853,7 @@
       </c>
     </row>
     <row r="290" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q290" s="28">
+      <c r="Q290" s="23">
         <v>44260</v>
       </c>
       <c r="R290">
@@ -59852,7 +59861,7 @@
       </c>
     </row>
     <row r="291" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q291" s="28">
+      <c r="Q291" s="23">
         <v>44261</v>
       </c>
       <c r="R291">
@@ -59860,7 +59869,7 @@
       </c>
     </row>
     <row r="292" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q292" s="28">
+      <c r="Q292" s="23">
         <v>44262</v>
       </c>
       <c r="R292">
@@ -59868,7 +59877,7 @@
       </c>
     </row>
     <row r="293" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q293" s="28">
+      <c r="Q293" s="23">
         <v>44263</v>
       </c>
       <c r="R293">
@@ -59876,7 +59885,7 @@
       </c>
     </row>
     <row r="294" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q294" s="28">
+      <c r="Q294" s="23">
         <v>44264</v>
       </c>
       <c r="R294">
@@ -59884,7 +59893,7 @@
       </c>
     </row>
     <row r="295" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q295" s="28">
+      <c r="Q295" s="23">
         <v>44265</v>
       </c>
       <c r="R295">
@@ -59892,7 +59901,7 @@
       </c>
     </row>
     <row r="296" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q296" s="28">
+      <c r="Q296" s="23">
         <v>44266</v>
       </c>
       <c r="R296">
@@ -59900,7 +59909,7 @@
       </c>
     </row>
     <row r="297" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q297" s="28">
+      <c r="Q297" s="23">
         <v>44267</v>
       </c>
       <c r="R297">
@@ -59908,7 +59917,7 @@
       </c>
     </row>
     <row r="298" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q298" s="28">
+      <c r="Q298" s="23">
         <v>44268</v>
       </c>
       <c r="R298">
@@ -59916,7 +59925,7 @@
       </c>
     </row>
     <row r="299" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q299" s="28">
+      <c r="Q299" s="23">
         <v>44269</v>
       </c>
       <c r="R299">
@@ -59924,7 +59933,7 @@
       </c>
     </row>
     <row r="300" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q300" s="28">
+      <c r="Q300" s="23">
         <v>44270</v>
       </c>
       <c r="R300">
@@ -59932,343 +59941,344 @@
       </c>
     </row>
     <row r="301" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q301" s="28">
+      <c r="Q301" s="23">
         <v>44271</v>
       </c>
       <c r="S301">
         <v>372</v>
       </c>
-      <c r="T301" s="33">
+      <c r="T301" s="28">
         <v>290.3971367416749</v>
       </c>
     </row>
     <row r="302" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q302" s="28">
+      <c r="Q302" s="23">
         <v>44272</v>
       </c>
       <c r="S302">
         <v>453</v>
       </c>
-      <c r="T302" s="34">
+      <c r="T302" s="29">
         <v>439.78282126096821</v>
       </c>
     </row>
     <row r="303" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q303" s="28">
+      <c r="Q303" s="23">
         <v>44273</v>
       </c>
       <c r="S303">
         <v>356</v>
       </c>
-      <c r="T303" s="33">
+      <c r="T303" s="28">
         <v>409.14110596599426</v>
       </c>
     </row>
     <row r="304" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q304" s="28">
+      <c r="Q304" s="23">
         <v>44274</v>
       </c>
       <c r="S304">
         <v>419</v>
       </c>
-      <c r="T304" s="34">
+      <c r="T304" s="29">
         <v>358.97353837902051</v>
       </c>
     </row>
     <row r="305" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q305" s="28">
+      <c r="Q305" s="23">
         <v>44275</v>
       </c>
       <c r="S305">
         <v>349</v>
       </c>
-      <c r="T305" s="33">
+      <c r="T305" s="28">
         <v>361.47096436562003</v>
       </c>
     </row>
     <row r="306" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q306" s="28">
+      <c r="Q306" s="23">
         <v>44276</v>
       </c>
       <c r="S306">
         <v>140</v>
       </c>
-      <c r="T306" s="34">
+      <c r="T306" s="29">
         <v>128.44603102275266</v>
       </c>
     </row>
     <row r="307" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q307" s="28">
+      <c r="Q307" s="23">
         <v>44277</v>
       </c>
       <c r="S307">
         <v>65</v>
       </c>
-      <c r="T307" s="33">
+      <c r="T307" s="28">
         <v>34.072077340453248</v>
       </c>
     </row>
     <row r="308" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q308" s="28">
+      <c r="Q308" s="23">
         <v>44278</v>
       </c>
       <c r="S308">
         <v>396</v>
       </c>
-      <c r="T308" s="34">
+      <c r="T308" s="29">
         <v>303.79719633034716</v>
       </c>
     </row>
     <row r="309" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q309" s="28">
+      <c r="Q309" s="23">
         <v>44279</v>
       </c>
       <c r="S309">
         <v>575</v>
       </c>
-      <c r="T309" s="33">
+      <c r="T309" s="28">
         <v>453.27375729690857</v>
       </c>
     </row>
     <row r="310" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q310" s="28">
+      <c r="Q310" s="23">
         <v>44280</v>
       </c>
       <c r="S310">
         <v>520</v>
       </c>
-      <c r="T310" s="34">
+      <c r="T310" s="29">
         <v>422.33532979280602</v>
       </c>
     </row>
     <row r="311" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q311" s="28">
+      <c r="Q311" s="23">
         <v>44281</v>
       </c>
       <c r="S311">
         <v>443</v>
       </c>
-      <c r="T311" s="33">
+      <c r="T311" s="28">
         <v>371.53834645266119</v>
       </c>
     </row>
     <row r="312" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q312" s="28">
+      <c r="Q312" s="23">
         <v>44282</v>
       </c>
       <c r="S312">
         <v>448</v>
       </c>
-      <c r="T312" s="34">
+      <c r="T312" s="29">
         <v>362.95880194235485</v>
       </c>
     </row>
     <row r="313" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q313" s="28">
+      <c r="Q313" s="23">
         <v>44283</v>
       </c>
       <c r="S313">
         <v>131</v>
       </c>
-      <c r="T313" s="33">
+      <c r="T313" s="28">
         <v>139.52694617772829</v>
       </c>
     </row>
     <row r="314" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q314" s="28">
+      <c r="Q314" s="23">
         <v>44284</v>
       </c>
       <c r="S314">
         <v>48</v>
       </c>
-      <c r="T314" s="34">
+      <c r="T314" s="29">
         <v>37.36130323956283</v>
       </c>
     </row>
     <row r="315" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q315" s="28">
+      <c r="Q315" s="23">
         <v>44285</v>
       </c>
       <c r="S315">
         <v>461</v>
       </c>
-      <c r="T315" s="33">
+      <c r="T315" s="28">
         <v>327.13568476225373</v>
       </c>
     </row>
     <row r="316" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q316" s="28">
+      <c r="Q316" s="23">
         <v>44286</v>
       </c>
       <c r="S316">
         <v>653</v>
       </c>
-      <c r="T316" s="34">
+      <c r="T316" s="29">
         <v>483.48262669052559</v>
       </c>
     </row>
     <row r="317" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q317" s="28">
+      <c r="Q317" s="23">
         <v>44287</v>
       </c>
       <c r="S317">
         <v>621</v>
       </c>
-      <c r="T317" s="33">
+      <c r="T317" s="28">
         <v>447.2287527028526</v>
       </c>
     </row>
     <row r="318" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q318" s="28">
+      <c r="Q318" s="23">
         <v>44288</v>
       </c>
       <c r="S318">
         <v>497</v>
       </c>
-      <c r="T318" s="34">
+      <c r="T318" s="29">
         <v>390.54532994762502</v>
       </c>
     </row>
     <row r="319" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q319" s="28">
+      <c r="Q319" s="23">
         <v>44289</v>
       </c>
       <c r="S319">
         <v>571</v>
       </c>
-      <c r="T319" s="33">
+      <c r="T319" s="28">
         <v>385.03539927825199</v>
       </c>
     </row>
     <row r="320" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q320" s="28">
+      <c r="Q320" s="23">
         <v>44290</v>
       </c>
       <c r="S320">
         <v>204</v>
       </c>
-      <c r="T320" s="34">
+      <c r="T320" s="29">
         <v>141.69734763959457</v>
       </c>
     </row>
     <row r="321" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q321" s="28">
+      <c r="Q321" s="23">
         <v>44291</v>
       </c>
       <c r="S321">
         <v>64</v>
       </c>
-      <c r="T321" s="33">
+      <c r="T321" s="28">
         <v>37.619005805480874</v>
       </c>
     </row>
     <row r="322" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q322" s="28">
+      <c r="Q322" s="23">
         <v>44292</v>
       </c>
       <c r="S322">
         <v>60</v>
       </c>
-      <c r="T322" s="34">
+      <c r="T322" s="29">
         <v>330.38647783043399</v>
       </c>
     </row>
     <row r="323" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q323" s="28">
+      <c r="Q323" s="23">
         <v>44293</v>
       </c>
       <c r="S323">
         <v>638</v>
       </c>
-      <c r="T323" s="33">
+      <c r="T323" s="28">
         <v>488.43532597864692</v>
       </c>
     </row>
     <row r="324" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q324" s="28">
+      <c r="Q324" s="23">
         <v>44294</v>
       </c>
       <c r="S324">
         <v>954</v>
       </c>
-      <c r="T324" s="34">
+      <c r="T324" s="29">
         <v>451.61005819808275</v>
       </c>
     </row>
     <row r="325" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q325" s="28">
+      <c r="Q325" s="23">
         <v>44295</v>
       </c>
       <c r="S325">
         <v>768</v>
       </c>
-      <c r="T325" s="33">
+      <c r="T325" s="28">
         <v>394.33573402049285</v>
       </c>
     </row>
     <row r="326" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q326" s="28">
+      <c r="Q326" s="23">
         <v>44296</v>
       </c>
       <c r="S326">
         <v>749</v>
       </c>
-      <c r="T326" s="34">
+      <c r="T326" s="29">
         <v>385.69916338603082</v>
       </c>
     </row>
     <row r="327" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q327" s="28">
+      <c r="Q327" s="23">
         <v>44297</v>
       </c>
       <c r="S327">
         <v>245</v>
       </c>
-      <c r="T327" s="33">
+      <c r="T327" s="28">
         <v>144.56287178456185</v>
       </c>
     </row>
     <row r="328" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q328" s="28">
+      <c r="Q328" s="23">
         <v>44298</v>
       </c>
       <c r="S328">
         <v>61</v>
       </c>
-      <c r="T328" s="34">
+      <c r="T328" s="29">
         <v>38.444926431731155</v>
       </c>
     </row>
     <row r="329" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q329" s="28">
+      <c r="Q329" s="23">
         <v>44299</v>
       </c>
       <c r="S329">
         <v>644</v>
       </c>
-      <c r="T329" s="33">
+      <c r="T329" s="28">
         <v>336.02822596407941</v>
       </c>
     </row>
     <row r="330" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q330" s="28">
+      <c r="Q330" s="23">
         <v>44300</v>
       </c>
       <c r="S330">
         <v>803</v>
       </c>
-      <c r="T330" s="34">
+      <c r="T330" s="29">
         <v>495.43924414038622</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C149:D149"/>
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="C141:C143"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -60283,8 +60293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N280" sqref="N280"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64432,43 +64442,43 @@
       <c r="C106" s="9">
         <v>44466</v>
       </c>
-      <c r="D106" s="17" t="str">
+      <c r="D106" s="16" t="str">
         <f t="shared" ref="D106:D134" si="13">IF(D5&lt;&gt;0,D40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="E106" s="17" t="str">
+      <c r="E106" s="16" t="str">
         <f t="shared" ref="E106:E134" si="14">IF(D5&lt;&gt;0,E40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="F106" s="17" t="str">
+      <c r="F106" s="16" t="str">
         <f t="shared" ref="F106:F134" si="15">IF(D5&lt;&gt;0,F40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="G106" s="17" t="str">
+      <c r="G106" s="16" t="str">
         <f t="shared" ref="G106:G134" si="16">IF(D5&lt;&gt;0,G40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="H106" s="17" t="str">
+      <c r="H106" s="16" t="str">
         <f t="shared" ref="H106:H134" si="17">IF(D5&lt;&gt;0,H40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="I106" s="17" t="str">
+      <c r="I106" s="16" t="str">
         <f t="shared" ref="I106:I134" si="18">IF(D5&lt;&gt;0,I40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="J106" s="17" t="str">
+      <c r="J106" s="16" t="str">
         <f t="shared" ref="J106:J134" si="19">IF(D5&lt;&gt;0,J40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="K106" s="17" t="str">
+      <c r="K106" s="16" t="str">
         <f t="shared" ref="K106:K134" si="20">IF(D5&lt;&gt;0,K40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="L106" s="17" t="str">
+      <c r="L106" s="16" t="str">
         <f t="shared" ref="L106:L134" si="21">IF(D5&lt;&gt;0,L40/D5*100,"")</f>
         <v/>
       </c>
-      <c r="M106" s="17" t="str">
+      <c r="M106" s="16" t="str">
         <f t="shared" ref="M106:M134" si="22">IF(D5&lt;&gt;0,M40/D5*100,"")</f>
         <v/>
       </c>
@@ -64747,43 +64757,43 @@
       <c r="C113" s="8">
         <v>44473</v>
       </c>
-      <c r="D113" s="17" t="str">
+      <c r="D113" s="16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="E113" s="17" t="str">
+      <c r="E113" s="16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F113" s="17" t="str">
+      <c r="F113" s="16" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="G113" s="17" t="str">
+      <c r="G113" s="16" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H113" s="17" t="str">
+      <c r="H113" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I113" s="17" t="str">
+      <c r="I113" s="16" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J113" s="17" t="str">
+      <c r="J113" s="16" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K113" s="17" t="str">
+      <c r="K113" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L113" s="17" t="str">
+      <c r="L113" s="16" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M113" s="17" t="str">
+      <c r="M113" s="16" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -65062,43 +65072,43 @@
       <c r="C120" s="9">
         <v>44480</v>
       </c>
-      <c r="D120" s="17" t="str">
+      <c r="D120" s="16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="E120" s="17" t="str">
+      <c r="E120" s="16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F120" s="17" t="str">
+      <c r="F120" s="16" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="G120" s="17" t="str">
+      <c r="G120" s="16" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H120" s="17" t="str">
+      <c r="H120" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I120" s="17" t="str">
+      <c r="I120" s="16" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J120" s="17" t="str">
+      <c r="J120" s="16" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K120" s="17" t="str">
+      <c r="K120" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L120" s="17" t="str">
+      <c r="L120" s="16" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M120" s="17" t="str">
+      <c r="M120" s="16" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -65692,43 +65702,43 @@
       <c r="C134" s="9">
         <v>44494</v>
       </c>
-      <c r="D134" s="17" t="str">
+      <c r="D134" s="16" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="E134" s="17" t="str">
+      <c r="E134" s="16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="F134" s="17" t="str">
+      <c r="F134" s="16" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="G134" s="17" t="str">
+      <c r="G134" s="16" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H134" s="17" t="str">
+      <c r="H134" s="16" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="I134" s="17" t="str">
+      <c r="I134" s="16" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J134" s="17" t="str">
+      <c r="J134" s="16" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K134" s="17" t="str">
+      <c r="K134" s="16" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L134" s="17" t="str">
+      <c r="L134" s="16" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M134" s="17" t="str">
+      <c r="M134" s="16" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -65764,10 +65774,10 @@
       <c r="N137" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O137" s="16"/>
+      <c r="O137" s="15"/>
     </row>
     <row r="138" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D138" t="s">
@@ -65782,7 +65792,7 @@
         <v>7</v>
       </c>
       <c r="G138">
-        <f t="shared" ref="G138:O138" si="23">AVERAGE(F39:F48)</f>
+        <f t="shared" ref="G138:N138" si="23">AVERAGE(F39:F48)</f>
         <v>12.38945518453427</v>
       </c>
       <c r="H138">
@@ -65813,10 +65823,10 @@
         <f t="shared" si="23"/>
         <v>5.1038754645999997</v>
       </c>
-      <c r="O138" s="16"/>
+      <c r="O138" s="15"/>
     </row>
     <row r="139" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C139" s="13"/>
+      <c r="C139" s="32"/>
       <c r="D139" t="s">
         <v>25</v>
       </c>
@@ -65825,7 +65835,7 @@
         <v>14.805404418657398</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139:O139" si="24">SQRT(AVERAGE(E72:E81))</f>
+        <f t="shared" ref="F139:N139" si="24">SQRT(AVERAGE(E72:E81))</f>
         <v>11.696153213770756</v>
       </c>
       <c r="G139">
@@ -65860,10 +65870,10 @@
         <f t="shared" si="24"/>
         <v>7.1900852303190268</v>
       </c>
-      <c r="O139" s="16"/>
+      <c r="O139" s="15"/>
     </row>
     <row r="140" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C140" s="13"/>
+      <c r="C140" s="32"/>
       <c r="D140" t="s">
         <v>26</v>
       </c>
@@ -65872,7 +65882,7 @@
         <v>286.74373356251169</v>
       </c>
       <c r="F140">
-        <f t="shared" ref="F140:O140" si="25">AVERAGE(E105:E114)</f>
+        <f t="shared" ref="F140:N140" si="25">AVERAGE(E105:E114)</f>
         <v>35.222879406256467</v>
       </c>
       <c r="G140">
@@ -65907,10 +65917,10 @@
         <f t="shared" si="25"/>
         <v>46.990628813602811</v>
       </c>
-      <c r="O140" s="16"/>
+      <c r="O140" s="15"/>
     </row>
     <row r="141" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D141" t="s">
@@ -65921,7 +65931,7 @@
         <v>15.95</v>
       </c>
       <c r="F141">
-        <f t="shared" ref="F141:O141" si="26">AVERAGE(E39:E58)</f>
+        <f t="shared" ref="F141:N141" si="26">AVERAGE(E39:E58)</f>
         <v>13.15</v>
       </c>
       <c r="G141">
@@ -65956,10 +65966,10 @@
         <f t="shared" si="26"/>
         <v>9.4985787329499995</v>
       </c>
-      <c r="O141" s="16"/>
+      <c r="O141" s="15"/>
     </row>
     <row r="142" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="13"/>
+      <c r="C142" s="32"/>
       <c r="D142" t="s">
         <v>25</v>
       </c>
@@ -65968,7 +65978,7 @@
         <v>18.642692938521517</v>
       </c>
       <c r="F142">
-        <f t="shared" ref="F142:O142" si="27">SQRT(AVERAGE(E72:E91))</f>
+        <f t="shared" ref="F142:N142" si="27">SQRT(AVERAGE(E72:E91))</f>
         <v>18.76832437912346</v>
       </c>
       <c r="G142">
@@ -66003,10 +66013,10 @@
         <f t="shared" si="27"/>
         <v>13.909439610761575</v>
       </c>
-      <c r="O142" s="16"/>
+      <c r="O142" s="15"/>
     </row>
     <row r="143" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C143" s="13"/>
+      <c r="C143" s="32"/>
       <c r="D143" t="s">
         <v>26</v>
       </c>
@@ -66015,7 +66025,7 @@
         <v>174.46650929320344</v>
       </c>
       <c r="F143">
-        <f t="shared" ref="F143:O143" si="28">AVERAGE(E105:E124)</f>
+        <f t="shared" ref="F143:N143" si="28">AVERAGE(E105:E124)</f>
         <v>47.426899894608503</v>
       </c>
       <c r="G143">
@@ -66050,10 +66060,10 @@
         <f t="shared" si="28"/>
         <v>42.686206298736622</v>
       </c>
-      <c r="O143" s="16"/>
+      <c r="O143" s="15"/>
     </row>
     <row r="144" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="32" t="s">
         <v>28</v>
       </c>
       <c r="D144" t="s">
@@ -66064,7 +66074,7 @@
         <v>20.833333333333332</v>
       </c>
       <c r="F144">
-        <f t="shared" ref="F144:O144" si="29">AVERAGE(E39:E68)</f>
+        <f t="shared" ref="F144:N144" si="29">AVERAGE(E39:E68)</f>
         <v>17.933333333333334</v>
       </c>
       <c r="G144">
@@ -66099,10 +66109,10 @@
         <f t="shared" si="29"/>
         <v>14.3546852771</v>
       </c>
-      <c r="O144" s="16"/>
+      <c r="O144" s="15"/>
     </row>
     <row r="145" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C145" s="13"/>
+      <c r="C145" s="32"/>
       <c r="D145" t="s">
         <v>25</v>
       </c>
@@ -66111,7 +66121,7 @@
         <v>25.039302439698009</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145:O145" si="30">SQRT(AVERAGE(E72:E101))</f>
+        <f t="shared" ref="F145:N145" si="30">SQRT(AVERAGE(E72:E101))</f>
         <v>25.346926177875428</v>
       </c>
       <c r="G145">
@@ -66146,10 +66156,10 @@
         <f t="shared" si="30"/>
         <v>20.946425608525228</v>
       </c>
-      <c r="O145" s="16"/>
+      <c r="O145" s="15"/>
     </row>
     <row r="146" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C146" s="13"/>
+      <c r="C146" s="32"/>
       <c r="D146" t="s">
         <v>26</v>
       </c>
@@ -66158,7 +66168,7 @@
         <v>226.11650129827268</v>
       </c>
       <c r="F146">
-        <f t="shared" ref="F146:O146" si="31">AVERAGE(E105:E134)</f>
+        <f t="shared" ref="F146:N146" si="31">AVERAGE(E105:E134)</f>
         <v>54.699077521543849</v>
       </c>
       <c r="G146">
@@ -66193,15 +66203,17 @@
         <f t="shared" si="31"/>
         <v>53.342677341426565</v>
       </c>
-      <c r="O146" s="16"/>
+      <c r="O146" s="15"/>
     </row>
     <row r="147" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O147" s="16"/>
+      <c r="O147" s="15"/>
     </row>
     <row r="148" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O148" s="16"/>
+      <c r="O148" s="15"/>
     </row>
     <row r="149" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
       <c r="E149" s="11" t="s">
         <v>2</v>
       </c>
@@ -66232,13 +66244,13 @@
       <c r="N149" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O149" s="16"/>
+      <c r="O149" s="15"/>
     </row>
     <row r="150" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E150">
@@ -66250,7 +66262,7 @@
         <v>7</v>
       </c>
       <c r="G150">
-        <f t="shared" ref="G150:O150" si="32">G138</f>
+        <f t="shared" ref="G150:N150" si="32">G138</f>
         <v>12.38945518453427</v>
       </c>
       <c r="H150">
@@ -66281,11 +66293,11 @@
         <f t="shared" si="32"/>
         <v>5.1038754645999997</v>
       </c>
-      <c r="O150" s="16"/>
+      <c r="O150" s="15"/>
     </row>
     <row r="151" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C151" s="13"/>
-      <c r="D151" t="s">
+      <c r="C151" s="34"/>
+      <c r="D151" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E151">
@@ -66297,7 +66309,7 @@
         <v>13.15</v>
       </c>
       <c r="G151">
-        <f t="shared" ref="G151:O151" si="33">G141</f>
+        <f t="shared" ref="G151:N151" si="33">G141</f>
         <v>15.781282952548329</v>
       </c>
       <c r="H151">
@@ -66328,11 +66340,11 @@
         <f t="shared" si="33"/>
         <v>9.4985787329499995</v>
       </c>
-      <c r="O151" s="16"/>
+      <c r="O151" s="15"/>
     </row>
     <row r="152" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C152" s="13"/>
-      <c r="D152" t="s">
+      <c r="C152" s="35"/>
+      <c r="D152" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E152">
@@ -66340,7 +66352,7 @@
         <v>20.833333333333332</v>
       </c>
       <c r="F152">
-        <f t="shared" ref="F152:O152" si="34">F144</f>
+        <f t="shared" ref="F152:N152" si="34">F144</f>
         <v>17.933333333333334</v>
       </c>
       <c r="G152">
@@ -66375,13 +66387,13 @@
         <f t="shared" si="34"/>
         <v>14.3546852771</v>
       </c>
-      <c r="O152" s="16"/>
+      <c r="O152" s="15"/>
     </row>
     <row r="153" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E153">
@@ -66389,7 +66401,7 @@
         <v>14.805404418657398</v>
       </c>
       <c r="F153">
-        <f t="shared" ref="F153:O153" si="35">F139</f>
+        <f t="shared" ref="F153:N153" si="35">F139</f>
         <v>11.696153213770756</v>
       </c>
       <c r="G153">
@@ -66424,11 +66436,11 @@
         <f t="shared" si="35"/>
         <v>7.1900852303190268</v>
       </c>
-      <c r="O153" s="16"/>
+      <c r="O153" s="15"/>
     </row>
     <row r="154" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C154" s="13"/>
-      <c r="D154" t="s">
+      <c r="C154" s="34"/>
+      <c r="D154" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E154">
@@ -66436,7 +66448,7 @@
         <v>18.642692938521517</v>
       </c>
       <c r="F154">
-        <f t="shared" ref="F154:O154" si="36">F142</f>
+        <f t="shared" ref="F154:N154" si="36">F142</f>
         <v>18.76832437912346</v>
       </c>
       <c r="G154">
@@ -66471,11 +66483,11 @@
         <f t="shared" si="36"/>
         <v>13.909439610761575</v>
       </c>
-      <c r="O154" s="16"/>
+      <c r="O154" s="15"/>
     </row>
     <row r="155" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C155" s="13"/>
-      <c r="D155" t="s">
+      <c r="C155" s="35"/>
+      <c r="D155" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E155">
@@ -66483,7 +66495,7 @@
         <v>25.039302439698009</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:O155" si="37">F145</f>
+        <f t="shared" ref="F155:N155" si="37">F145</f>
         <v>25.346926177875428</v>
       </c>
       <c r="G155">
@@ -66518,13 +66530,13 @@
         <f t="shared" si="37"/>
         <v>20.946425608525228</v>
       </c>
-      <c r="O155" s="16"/>
+      <c r="O155" s="15"/>
     </row>
     <row r="156" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E156">
@@ -66532,7 +66544,7 @@
         <v>286.74373356251169</v>
       </c>
       <c r="F156">
-        <f t="shared" ref="F156:O156" si="38">F140</f>
+        <f t="shared" ref="F156:N156" si="38">F140</f>
         <v>35.222879406256467</v>
       </c>
       <c r="G156">
@@ -66567,11 +66579,11 @@
         <f t="shared" si="38"/>
         <v>46.990628813602811</v>
       </c>
-      <c r="O156" s="16"/>
+      <c r="O156" s="15"/>
     </row>
     <row r="157" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C157" s="13"/>
-      <c r="D157" t="s">
+      <c r="C157" s="34"/>
+      <c r="D157" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E157">
@@ -66579,7 +66591,7 @@
         <v>174.46650929320344</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157:O157" si="39">F143</f>
+        <f t="shared" ref="F157:N157" si="39">F143</f>
         <v>47.426899894608503</v>
       </c>
       <c r="G157">
@@ -66614,11 +66626,11 @@
         <f t="shared" si="39"/>
         <v>42.686206298736622</v>
       </c>
-      <c r="O157" s="16"/>
+      <c r="O157" s="15"/>
     </row>
     <row r="158" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C158" s="13"/>
-      <c r="D158" t="s">
+      <c r="C158" s="35"/>
+      <c r="D158" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E158">
@@ -66626,7 +66638,7 @@
         <v>226.11650129827268</v>
       </c>
       <c r="F158">
-        <f t="shared" ref="F158:O158" si="40">F146</f>
+        <f t="shared" ref="F158:N158" si="40">F146</f>
         <v>54.699077521543849</v>
       </c>
       <c r="G158">
@@ -66661,7 +66673,7 @@
         <f t="shared" si="40"/>
         <v>53.342677341426565</v>
       </c>
-      <c r="O158" s="16"/>
+      <c r="O158" s="15"/>
     </row>
     <row r="259" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q259" t="s">
@@ -66678,7 +66690,7 @@
       </c>
     </row>
     <row r="260" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q260" s="28">
+      <c r="Q260" s="23">
         <v>44434</v>
       </c>
       <c r="R260">
@@ -66686,7 +66698,7 @@
       </c>
     </row>
     <row r="261" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q261" s="28">
+      <c r="Q261" s="23">
         <v>44435</v>
       </c>
       <c r="R261">
@@ -66694,7 +66706,7 @@
       </c>
     </row>
     <row r="262" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q262" s="28">
+      <c r="Q262" s="23">
         <v>44436</v>
       </c>
       <c r="R262">
@@ -66702,7 +66714,7 @@
       </c>
     </row>
     <row r="263" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q263" s="28">
+      <c r="Q263" s="23">
         <v>44437</v>
       </c>
       <c r="R263">
@@ -66710,7 +66722,7 @@
       </c>
     </row>
     <row r="264" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q264" s="28">
+      <c r="Q264" s="23">
         <v>44438</v>
       </c>
       <c r="R264">
@@ -66718,7 +66730,7 @@
       </c>
     </row>
     <row r="265" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q265" s="28">
+      <c r="Q265" s="23">
         <v>44439</v>
       </c>
       <c r="R265">
@@ -66726,7 +66738,7 @@
       </c>
     </row>
     <row r="266" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q266" s="28">
+      <c r="Q266" s="23">
         <v>44440</v>
       </c>
       <c r="R266">
@@ -66734,7 +66746,7 @@
       </c>
     </row>
     <row r="267" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q267" s="28">
+      <c r="Q267" s="23">
         <v>44441</v>
       </c>
       <c r="R267">
@@ -66742,7 +66754,7 @@
       </c>
     </row>
     <row r="268" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q268" s="28">
+      <c r="Q268" s="23">
         <v>44442</v>
       </c>
       <c r="R268">
@@ -66750,7 +66762,7 @@
       </c>
     </row>
     <row r="269" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q269" s="28">
+      <c r="Q269" s="23">
         <v>44443</v>
       </c>
       <c r="R269">
@@ -66758,7 +66770,7 @@
       </c>
     </row>
     <row r="270" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q270" s="28">
+      <c r="Q270" s="23">
         <v>44444</v>
       </c>
       <c r="R270">
@@ -66766,7 +66778,7 @@
       </c>
     </row>
     <row r="271" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q271" s="28">
+      <c r="Q271" s="23">
         <v>44445</v>
       </c>
       <c r="R271">
@@ -66774,7 +66786,7 @@
       </c>
     </row>
     <row r="272" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q272" s="28">
+      <c r="Q272" s="23">
         <v>44446</v>
       </c>
       <c r="R272">
@@ -66782,7 +66794,7 @@
       </c>
     </row>
     <row r="273" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q273" s="28">
+      <c r="Q273" s="23">
         <v>44447</v>
       </c>
       <c r="R273">
@@ -66790,7 +66802,7 @@
       </c>
     </row>
     <row r="274" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q274" s="28">
+      <c r="Q274" s="23">
         <v>44448</v>
       </c>
       <c r="R274">
@@ -66798,7 +66810,7 @@
       </c>
     </row>
     <row r="275" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q275" s="28">
+      <c r="Q275" s="23">
         <v>44449</v>
       </c>
       <c r="R275">
@@ -66806,7 +66818,7 @@
       </c>
     </row>
     <row r="276" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q276" s="28">
+      <c r="Q276" s="23">
         <v>44450</v>
       </c>
       <c r="R276">
@@ -66814,7 +66826,7 @@
       </c>
     </row>
     <row r="277" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q277" s="28">
+      <c r="Q277" s="23">
         <v>44451</v>
       </c>
       <c r="R277">
@@ -66822,7 +66834,7 @@
       </c>
     </row>
     <row r="278" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q278" s="28">
+      <c r="Q278" s="23">
         <v>44452</v>
       </c>
       <c r="R278">
@@ -66830,7 +66842,7 @@
       </c>
     </row>
     <row r="279" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q279" s="28">
+      <c r="Q279" s="23">
         <v>44453</v>
       </c>
       <c r="R279">
@@ -66838,7 +66850,7 @@
       </c>
     </row>
     <row r="280" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q280" s="28">
+      <c r="Q280" s="23">
         <v>44454</v>
       </c>
       <c r="R280">
@@ -66846,7 +66858,7 @@
       </c>
     </row>
     <row r="281" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q281" s="28">
+      <c r="Q281" s="23">
         <v>44455</v>
       </c>
       <c r="R281">
@@ -66854,7 +66866,7 @@
       </c>
     </row>
     <row r="282" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q282" s="28">
+      <c r="Q282" s="23">
         <v>44456</v>
       </c>
       <c r="R282">
@@ -66862,7 +66874,7 @@
       </c>
     </row>
     <row r="283" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q283" s="28">
+      <c r="Q283" s="23">
         <v>44457</v>
       </c>
       <c r="R283">
@@ -66870,7 +66882,7 @@
       </c>
     </row>
     <row r="284" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q284" s="28">
+      <c r="Q284" s="23">
         <v>44458</v>
       </c>
       <c r="R284">
@@ -66878,7 +66890,7 @@
       </c>
     </row>
     <row r="285" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q285" s="28">
+      <c r="Q285" s="23">
         <v>44459</v>
       </c>
       <c r="R285">
@@ -66886,7 +66898,7 @@
       </c>
     </row>
     <row r="286" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q286" s="28">
+      <c r="Q286" s="23">
         <v>44460</v>
       </c>
       <c r="R286">
@@ -66894,7 +66906,7 @@
       </c>
     </row>
     <row r="287" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q287" s="28">
+      <c r="Q287" s="23">
         <v>44461</v>
       </c>
       <c r="R287">
@@ -66902,7 +66914,7 @@
       </c>
     </row>
     <row r="288" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q288" s="28">
+      <c r="Q288" s="23">
         <v>44462</v>
       </c>
       <c r="R288">
@@ -66910,7 +66922,7 @@
       </c>
     </row>
     <row r="289" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q289" s="28">
+      <c r="Q289" s="23">
         <v>44463</v>
       </c>
       <c r="R289">
@@ -66918,7 +66930,7 @@
       </c>
     </row>
     <row r="290" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q290" s="28">
+      <c r="Q290" s="23">
         <v>44464</v>
       </c>
       <c r="R290">
@@ -66926,343 +66938,344 @@
       </c>
     </row>
     <row r="291" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q291" s="28">
+      <c r="Q291" s="23">
         <v>44465</v>
       </c>
       <c r="S291">
         <v>1</v>
       </c>
-      <c r="T291" s="35">
+      <c r="T291" s="30">
         <v>1.7481436338493057</v>
       </c>
     </row>
     <row r="292" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q292" s="28">
+      <c r="Q292" s="23">
         <v>44466</v>
       </c>
       <c r="S292">
         <v>0</v>
       </c>
-      <c r="T292" s="36">
+      <c r="T292" s="31">
         <v>1.004401761279242</v>
       </c>
     </row>
     <row r="293" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q293" s="28">
+      <c r="Q293" s="23">
         <v>44467</v>
       </c>
       <c r="S293">
         <v>29</v>
       </c>
-      <c r="T293" s="35">
+      <c r="T293" s="30">
         <v>18.945534652467355</v>
       </c>
     </row>
     <row r="294" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q294" s="28">
+      <c r="Q294" s="23">
         <v>44468</v>
       </c>
       <c r="S294">
         <v>22</v>
       </c>
-      <c r="T294" s="36">
+      <c r="T294" s="31">
         <v>23.883667181996735</v>
       </c>
     </row>
     <row r="295" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q295" s="28">
+      <c r="Q295" s="23">
         <v>44469</v>
       </c>
       <c r="S295">
         <v>27</v>
       </c>
-      <c r="T295" s="35">
+      <c r="T295" s="30">
         <v>17.944462255150796</v>
       </c>
     </row>
     <row r="296" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q296" s="28">
+      <c r="Q296" s="23">
         <v>44470</v>
       </c>
       <c r="S296">
         <v>16</v>
       </c>
-      <c r="T296" s="36">
+      <c r="T296" s="31">
         <v>18.691188336826848</v>
       </c>
     </row>
     <row r="297" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q297" s="28">
+      <c r="Q297" s="23">
         <v>44471</v>
       </c>
       <c r="S297">
         <v>23</v>
       </c>
-      <c r="T297" s="35">
+      <c r="T297" s="30">
         <v>20.878274907578607</v>
       </c>
     </row>
     <row r="298" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q298" s="28">
+      <c r="Q298" s="23">
         <v>44472</v>
       </c>
       <c r="S298">
         <v>6</v>
       </c>
-      <c r="T298" s="36">
+      <c r="T298" s="31">
         <v>2.6374727603282642</v>
       </c>
     </row>
     <row r="299" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q299" s="28">
+      <c r="Q299" s="23">
         <v>44473</v>
       </c>
       <c r="S299">
         <v>0</v>
       </c>
-      <c r="T299" s="35">
+      <c r="T299" s="30">
         <v>1.8549785606265528</v>
       </c>
     </row>
     <row r="300" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q300" s="28">
+      <c r="Q300" s="23">
         <v>44474</v>
       </c>
       <c r="S300">
         <v>46</v>
       </c>
-      <c r="T300" s="36">
+      <c r="T300" s="31">
         <v>25.832888410174764</v>
       </c>
     </row>
     <row r="301" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q301" s="28">
+      <c r="Q301" s="23">
         <v>44475</v>
       </c>
       <c r="S301">
         <v>33</v>
       </c>
-      <c r="T301" s="35">
+      <c r="T301" s="30">
         <v>33.04627706731128</v>
       </c>
     </row>
     <row r="302" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q302" s="28">
+      <c r="Q302" s="23">
         <v>44476</v>
       </c>
       <c r="S302">
         <v>29</v>
       </c>
-      <c r="T302" s="36">
+      <c r="T302" s="31">
         <v>25.087032668934764</v>
       </c>
     </row>
     <row r="303" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q303" s="28">
+      <c r="Q303" s="23">
         <v>44477</v>
       </c>
       <c r="S303">
         <v>31</v>
       </c>
-      <c r="T303" s="35">
+      <c r="T303" s="30">
         <v>24.861970609542993</v>
       </c>
     </row>
     <row r="304" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q304" s="28">
+      <c r="Q304" s="23">
         <v>44478</v>
       </c>
       <c r="S304">
         <v>29</v>
       </c>
-      <c r="T304" s="36">
+      <c r="T304" s="31">
         <v>28.329231814299551</v>
       </c>
     </row>
     <row r="305" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q305" s="28">
+      <c r="Q305" s="23">
         <v>44479</v>
       </c>
       <c r="S305">
         <v>5</v>
       </c>
-      <c r="T305" s="35">
+      <c r="T305" s="30">
         <v>3.8718061081794595</v>
       </c>
     </row>
     <row r="306" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q306" s="28">
+      <c r="Q306" s="23">
         <v>44480</v>
       </c>
       <c r="S306">
         <v>0</v>
       </c>
-      <c r="T306" s="36">
+      <c r="T306" s="31">
         <v>2.798732922411316</v>
       </c>
     </row>
     <row r="307" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q307" s="28">
+      <c r="Q307" s="23">
         <v>44481</v>
       </c>
       <c r="S307">
         <v>49</v>
       </c>
-      <c r="T307" s="35">
+      <c r="T307" s="30">
         <v>35.165629461000719</v>
       </c>
     </row>
     <row r="308" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q308" s="28">
+      <c r="Q308" s="23">
         <v>44482</v>
       </c>
       <c r="S308">
         <v>40</v>
       </c>
-      <c r="T308" s="36">
+      <c r="T308" s="31">
         <v>45.663496791388582</v>
       </c>
     </row>
     <row r="309" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q309" s="28">
+      <c r="Q309" s="23">
         <v>44483</v>
       </c>
       <c r="S309">
         <v>60</v>
       </c>
-      <c r="T309" s="35">
+      <c r="T309" s="30">
         <v>34.015609325813244</v>
       </c>
     </row>
     <row r="310" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q310" s="28">
+      <c r="Q310" s="23">
         <v>44484</v>
       </c>
       <c r="S310">
         <v>49</v>
       </c>
-      <c r="T310" s="36">
+      <c r="T310" s="31">
         <v>34.080233136820937</v>
       </c>
     </row>
     <row r="311" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q311" s="28">
+      <c r="Q311" s="23">
         <v>44485</v>
       </c>
       <c r="S311">
         <v>44</v>
       </c>
-      <c r="T311" s="35">
+      <c r="T311" s="30">
         <v>38.781901235447627</v>
       </c>
     </row>
     <row r="312" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q312" s="28">
+      <c r="Q312" s="23">
         <v>44486</v>
       </c>
       <c r="S312">
         <v>1</v>
       </c>
-      <c r="T312" s="36">
+      <c r="T312" s="31">
         <v>5.5743169394024905</v>
       </c>
     </row>
     <row r="313" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q313" s="28">
+      <c r="Q313" s="23">
         <v>44487</v>
       </c>
       <c r="S313">
         <v>3</v>
       </c>
-      <c r="T313" s="35">
+      <c r="T313" s="30">
         <v>4.0399983922332252</v>
       </c>
     </row>
     <row r="314" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q314" s="28">
+      <c r="Q314" s="23">
         <v>44488</v>
       </c>
       <c r="S314">
         <v>64</v>
       </c>
-      <c r="T314" s="36">
+      <c r="T314" s="31">
         <v>47.568091524221202</v>
       </c>
     </row>
     <row r="315" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q315" s="28">
+      <c r="Q315" s="23">
         <v>44489</v>
       </c>
       <c r="S315">
         <v>75</v>
       </c>
-      <c r="T315" s="35">
+      <c r="T315" s="30">
         <v>60.906536526784159</v>
       </c>
     </row>
     <row r="316" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q316" s="28">
+      <c r="Q316" s="23">
         <v>44490</v>
       </c>
       <c r="S316">
         <v>46</v>
       </c>
-      <c r="T316" s="36">
+      <c r="T316" s="31">
         <v>45.80759973957705</v>
       </c>
     </row>
     <row r="317" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q317" s="28">
+      <c r="Q317" s="23">
         <v>44491</v>
       </c>
       <c r="S317">
         <v>59</v>
       </c>
-      <c r="T317" s="35">
+      <c r="T317" s="30">
         <v>45.591571898012099</v>
       </c>
     </row>
     <row r="318" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q318" s="28">
+      <c r="Q318" s="23">
         <v>44492</v>
       </c>
       <c r="S318">
         <v>75</v>
       </c>
-      <c r="T318" s="36">
+      <c r="T318" s="31">
         <v>52.108121560701228</v>
       </c>
     </row>
     <row r="319" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q319" s="28">
+      <c r="Q319" s="23">
         <v>44493</v>
       </c>
       <c r="S319">
         <v>13</v>
       </c>
-      <c r="T319" s="35">
+      <c r="T319" s="30">
         <v>7.708231070407578</v>
       </c>
     </row>
     <row r="320" spans="17:20" x14ac:dyDescent="0.25">
-      <c r="Q320" s="28">
+      <c r="Q320" s="23">
         <v>44494</v>
       </c>
       <c r="S320">
         <v>0</v>
       </c>
-      <c r="T320" s="36">
+      <c r="T320" s="31">
         <v>5.7184079210882341</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C149:D149"/>
     <mergeCell ref="C138:C140"/>
     <mergeCell ref="C141:C143"/>
     <mergeCell ref="C144:C146"/>
     <mergeCell ref="C150:C152"/>
     <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
